--- a/data/VADeaths.xlsx
+++ b/data/VADeaths.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VADeaths" sheetId="1" r:id="rId1"/>
+    <sheet name="tidy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>70-74</t>
   </si>
@@ -49,6 +50,30 @@
   </si>
   <si>
     <t xml:space="preserve">Urban </t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>death_rate</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>urban</t>
   </si>
 </sst>
 </file>
@@ -543,17 +568,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -878,122 +906,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>11.7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>15.4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>11.7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>24.3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>13.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>26.9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>20.3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>37</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>19.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>41</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>30.9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>54.6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>35.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>66</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>54.3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1005,4 +1033,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>